--- a/PeerJ-LS2022/Clustering_Results.xlsx
+++ b/PeerJ-LS2022/Clustering_Results.xlsx
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F2" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>7.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>7.66666666666667</v>
+        <v>3.83333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>8.66666666666667</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>5.66666666666667</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>5.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>7.66666666666667</v>
+        <v>3.83333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>6.33333333333333</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>3.66666666666667</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>6.33333333333333</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>6.66666666666667</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>4.66666666666667</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>9.33333333333333</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>9.33333333333333</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>3.33333333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>8.33333333333333</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>6.66666666666667</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>5.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>6.33333333333333</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>5.66666666666667</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>4.66666666666667</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>7.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>6.66666666666667</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>6.33333333333333</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="n">
-        <v>7.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>3.33333333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>8.33333333333333</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -680,19 +680,19 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>3.33333333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>4.33333333333333</v>
+        <v>2.16666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>3.66666666666667</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -703,19 +703,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>3.33333333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>4.33333333333333</v>
+        <v>2.16666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>4.33333333333333</v>
+        <v>2.16666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>5.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -726,19 +726,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>5.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>4.33333333333333</v>
+        <v>2.16666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>4.66666666666667</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
@@ -749,19 +749,19 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>5.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>5.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>7.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>8.33333333333333</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>3.33333333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -772,19 +772,19 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>7.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>2.66666666666667</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -795,19 +795,19 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.66666666666667</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F16" t="n">
-        <v>5.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -818,19 +818,19 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -841,19 +841,19 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>9.33333333333333</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>7.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>6.66666666666667</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="F18" t="n">
-        <v>2.33333333333333</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -864,19 +864,19 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>9.33333333333333</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -887,19 +887,19 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>6.33333333333333</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="C20" t="n">
-        <v>6.33333333333333</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>4.33333333333333</v>
+        <v>2.16666666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>8.33333333333333</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>7.66666666666667</v>
+        <v>3.83333333333333</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -910,19 +910,19 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.66666666666667</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>4.66666666666667</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>6.33333333333333</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>4.66666666666667</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -933,19 +933,19 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>6.33333333333333</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E22" t="n">
-        <v>5.66666666666667</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>3.33333333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -956,19 +956,19 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C23" t="n">
-        <v>5.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -979,19 +979,19 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>7.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D24" t="n">
-        <v>5.66666666666667</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="E24" t="n">
-        <v>4.33333333333333</v>
+        <v>2.16666666666667</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1002,19 +1002,19 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>8.66666666666667</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>7.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>7.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>2.33333333333333</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1025,19 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>8.66666666666667</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="D26" t="n">
-        <v>3.33333333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="n">
-        <v>5.66666666666667</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -1048,19 +1048,19 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D27" t="n">
-        <v>3.33333333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>5.66666666666667</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1071,19 +1071,19 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
         <v>3.5</v>
       </c>
-      <c r="C28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7</v>
-      </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
